--- a/Labor Predictor Data _1_Oct.xlsx
+++ b/Labor Predictor Data _1_Oct.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="45" windowWidth="20730" windowHeight="9975" activeTab="1"/>
+    <workbookView xWindow="360" yWindow="45" windowWidth="20730" windowHeight="9975"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -868,12 +868,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:I71"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H68" sqref="H68"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A71" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -945,7 +944,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:9" hidden="1">
+    <row r="3" spans="1:9">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1032,7 +1031,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:9" hidden="1">
+    <row r="6" spans="1:9">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1119,7 +1118,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:9" hidden="1">
+    <row r="9" spans="1:9">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1148,7 +1147,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:9" hidden="1">
+    <row r="10" spans="1:9">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1177,7 +1176,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:9" hidden="1">
+    <row r="11" spans="1:9">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1206,7 +1205,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:9" hidden="1">
+    <row r="12" spans="1:9">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1235,7 +1234,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:9" hidden="1">
+    <row r="13" spans="1:9">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1293,7 +1292,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:9" hidden="1">
+    <row r="15" spans="1:9">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1322,7 +1321,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="1:9" hidden="1">
+    <row r="16" spans="1:9">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1351,7 +1350,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:9" hidden="1">
+    <row r="17" spans="1:9">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1380,7 +1379,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="1:9" hidden="1">
+    <row r="18" spans="1:9">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1467,7 +1466,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="1:9" hidden="1">
+    <row r="21" spans="1:9">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1496,7 +1495,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="22" spans="1:9" hidden="1">
+    <row r="22" spans="1:9">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1525,7 +1524,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="23" spans="1:9" hidden="1">
+    <row r="23" spans="1:9">
       <c r="A23">
         <v>22</v>
       </c>
@@ -1554,7 +1553,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="24" spans="1:9" hidden="1">
+    <row r="24" spans="1:9">
       <c r="A24">
         <v>23</v>
       </c>
@@ -1583,7 +1582,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="25" spans="1:9" hidden="1">
+    <row r="25" spans="1:9">
       <c r="A25">
         <v>24</v>
       </c>
@@ -1612,7 +1611,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="26" spans="1:9" hidden="1">
+    <row r="26" spans="1:9">
       <c r="A26">
         <v>25</v>
       </c>
@@ -1670,7 +1669,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="28" spans="1:9" hidden="1">
+    <row r="28" spans="1:9">
       <c r="A28">
         <v>27</v>
       </c>
@@ -1699,7 +1698,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="29" spans="1:9" hidden="1">
+    <row r="29" spans="1:9">
       <c r="A29">
         <v>28</v>
       </c>
@@ -1757,7 +1756,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="31" spans="1:9" hidden="1">
+    <row r="31" spans="1:9">
       <c r="A31">
         <v>30</v>
       </c>
@@ -1815,7 +1814,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="33" spans="1:9" hidden="1">
+    <row r="33" spans="1:9">
       <c r="A33">
         <v>32</v>
       </c>
@@ -1844,7 +1843,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="34" spans="1:9" hidden="1">
+    <row r="34" spans="1:9">
       <c r="A34">
         <v>33</v>
       </c>
@@ -1873,7 +1872,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="35" spans="1:9" hidden="1">
+    <row r="35" spans="1:9">
       <c r="A35">
         <v>34</v>
       </c>
@@ -1902,7 +1901,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="36" spans="1:9" hidden="1">
+    <row r="36" spans="1:9">
       <c r="A36">
         <v>35</v>
       </c>
@@ -1931,7 +1930,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="37" spans="1:9" hidden="1">
+    <row r="37" spans="1:9">
       <c r="A37">
         <v>36</v>
       </c>
@@ -1960,7 +1959,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="38" spans="1:9" hidden="1">
+    <row r="38" spans="1:9">
       <c r="A38">
         <v>37</v>
       </c>
@@ -1989,7 +1988,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="39" spans="1:9" hidden="1">
+    <row r="39" spans="1:9">
       <c r="A39">
         <v>38</v>
       </c>
@@ -2018,7 +2017,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="40" spans="1:9" hidden="1">
+    <row r="40" spans="1:9">
       <c r="A40">
         <v>39</v>
       </c>
@@ -2047,7 +2046,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="41" spans="1:9" hidden="1">
+    <row r="41" spans="1:9">
       <c r="A41">
         <v>40</v>
       </c>
@@ -2105,7 +2104,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="43" spans="1:9" hidden="1">
+    <row r="43" spans="1:9">
       <c r="A43">
         <v>42</v>
       </c>
@@ -2134,7 +2133,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="44" spans="1:9" hidden="1">
+    <row r="44" spans="1:9">
       <c r="A44">
         <v>43</v>
       </c>
@@ -2221,7 +2220,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="47" spans="1:9" hidden="1">
+    <row r="47" spans="1:9">
       <c r="A47">
         <v>46</v>
       </c>
@@ -2250,7 +2249,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="48" spans="1:9" hidden="1">
+    <row r="48" spans="1:9">
       <c r="A48">
         <v>47</v>
       </c>
@@ -2308,7 +2307,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="50" spans="1:9" hidden="1">
+    <row r="50" spans="1:9">
       <c r="A50">
         <v>49</v>
       </c>
@@ -2337,7 +2336,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="51" spans="1:9" hidden="1">
+    <row r="51" spans="1:9">
       <c r="A51">
         <v>50</v>
       </c>
@@ -2395,7 +2394,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="53" spans="1:9" hidden="1">
+    <row r="53" spans="1:9">
       <c r="A53">
         <v>52</v>
       </c>
@@ -2424,7 +2423,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="54" spans="1:9" hidden="1">
+    <row r="54" spans="1:9">
       <c r="A54">
         <v>53</v>
       </c>
@@ -2453,7 +2452,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="55" spans="1:9" hidden="1">
+    <row r="55" spans="1:9">
       <c r="A55">
         <v>54</v>
       </c>
@@ -2482,7 +2481,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="56" spans="1:9" hidden="1">
+    <row r="56" spans="1:9">
       <c r="A56">
         <v>55</v>
       </c>
@@ -2511,7 +2510,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="57" spans="1:9" hidden="1">
+    <row r="57" spans="1:9">
       <c r="A57">
         <v>56</v>
       </c>
@@ -2540,7 +2539,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="58" spans="1:9" hidden="1">
+    <row r="58" spans="1:9">
       <c r="A58">
         <v>57</v>
       </c>
@@ -2569,7 +2568,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="59" spans="1:9" hidden="1">
+    <row r="59" spans="1:9">
       <c r="A59">
         <v>58</v>
       </c>
@@ -2598,7 +2597,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="60" spans="1:9" hidden="1">
+    <row r="60" spans="1:9">
       <c r="A60">
         <v>59</v>
       </c>
@@ -2627,7 +2626,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="61" spans="1:9" hidden="1">
+    <row r="61" spans="1:9">
       <c r="A61">
         <v>60</v>
       </c>
@@ -2656,7 +2655,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="62" spans="1:9" hidden="1">
+    <row r="62" spans="1:9">
       <c r="A62">
         <v>61</v>
       </c>
@@ -2685,7 +2684,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="63" spans="1:9" hidden="1">
+    <row r="63" spans="1:9">
       <c r="A63">
         <v>62</v>
       </c>
@@ -2743,7 +2742,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="65" spans="1:9" hidden="1">
+    <row r="65" spans="1:9">
       <c r="A65">
         <v>64</v>
       </c>
@@ -2772,7 +2771,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="66" spans="1:9" hidden="1">
+    <row r="66" spans="1:9">
       <c r="A66">
         <v>65</v>
       </c>
@@ -2801,7 +2800,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="67" spans="1:9" hidden="1">
+    <row r="67" spans="1:9">
       <c r="A67">
         <v>66</v>
       </c>
@@ -2888,7 +2887,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="70" spans="1:9" hidden="1">
+    <row r="70" spans="1:9">
       <c r="A70">
         <v>69</v>
       </c>
@@ -2917,7 +2916,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="71" spans="1:9" hidden="1">
+    <row r="71" spans="1:9">
       <c r="A71">
         <v>70</v>
       </c>
@@ -2947,40 +2946,6 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I71">
-    <filterColumn colId="7">
-      <filters>
-        <filter val="10"/>
-        <filter val="10.2"/>
-        <filter val="10.4"/>
-        <filter val="10.9"/>
-        <filter val="11"/>
-        <filter val="11.2"/>
-        <filter val="12"/>
-        <filter val="13"/>
-        <filter val="17"/>
-        <filter val="7.2"/>
-        <filter val="7.5"/>
-        <filter val="7.6"/>
-        <filter val="8.18"/>
-        <filter val="8.4"/>
-        <filter val="8.5"/>
-        <filter val="8.6"/>
-        <filter val="8.8"/>
-        <filter val="8.9"/>
-        <filter val="9"/>
-        <filter val="9.2"/>
-        <filter val="9.4"/>
-        <filter val="9.5"/>
-        <filter val="9.9"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="8">
-      <filters>
-        <filter val="C"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
   <conditionalFormatting sqref="H2:H1048576">
     <cfRule type="cellIs" dxfId="13" priority="12" operator="greaterThan">
       <formula>18</formula>
@@ -3048,7 +3013,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:S20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="Q4" sqref="Q4"/>
     </sheetView>
   </sheetViews>
